--- a/Excel Automation/sales.xlsx
+++ b/Excel Automation/sales.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOOLKOOBO\Desktop\Automation\Excel Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6FA0D1D3-8896-410F-9B21-7B3A247534FE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Sales" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,37 +23,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>Adam Jenkins</t>
+  </si>
+  <si>
+    <t>Ryan Moore</t>
+  </si>
+  <si>
+    <t>Henry Edwards</t>
+  </si>
+  <si>
+    <t>Roy Collins</t>
+  </si>
+  <si>
+    <t>Brian Cook</t>
+  </si>
+  <si>
+    <t>Michelle Thomas</t>
+  </si>
+  <si>
+    <t>Kevin Ward</t>
+  </si>
+  <si>
+    <t>Katherine Scott</t>
+  </si>
+  <si>
+    <t>Carol Gray</t>
+  </si>
+  <si>
+    <t>Jean Campbell</t>
+  </si>
+  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Adam Jenkins</t>
-  </si>
-  <si>
-    <t>Ryan Moore</t>
-  </si>
-  <si>
-    <t>Henry Edwards</t>
-  </si>
-  <si>
-    <t>Roy Collins</t>
-  </si>
-  <si>
-    <t>Brian Cook</t>
-  </si>
-  <si>
-    <t>Michelle Thomas</t>
-  </si>
-  <si>
-    <t>Kevin Ward</t>
-  </si>
-  <si>
-    <t>Katherine Scott</t>
-  </si>
-  <si>
-    <t>Carol Gray</t>
-  </si>
-  <si>
-    <t>Jean Campbell</t>
   </si>
   <si>
     <t>Year</t>
@@ -71,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,19 +429,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,114 +449,114 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>7</v>
@@ -570,25 +564,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -596,7 +590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2006</v>
       </c>
@@ -604,7 +598,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2007</v>
       </c>
@@ -612,7 +606,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2008</v>
       </c>
@@ -620,7 +614,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2009</v>
       </c>
@@ -628,7 +622,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2010</v>
       </c>
@@ -636,7 +630,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2011</v>
       </c>
@@ -644,7 +638,7 @@
         <v>5456</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2012</v>
       </c>
@@ -652,7 +646,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2013</v>
       </c>
@@ -660,7 +654,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2014</v>
       </c>
@@ -668,7 +662,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2015</v>
       </c>
@@ -676,7 +670,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2016</v>
       </c>
